--- a/DB simples BM Injetados.xlsx
+++ b/DB simples BM Injetados.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/40a4bd6abd46b633/Área de Trabalho/Projeto Gerador Pedidos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eduar\OneDrive\Área de Trabalho\Projeto Gerador Pedidos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="347" documentId="8_{F498D0A1-3DB9-4943-BD51-1F0AB39A402A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{927654EC-8267-4CBC-BF4F-A9EAF5A023A9}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B851755C-6E6F-4087-8E1E-5AB8E75457C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{EE5A08DA-E60B-4082-BF91-94D3AB2B68CD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{EE5A08DA-E60B-4082-BF91-94D3AB2B68CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Processos" sheetId="2" r:id="rId1"/>
@@ -101,7 +101,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Eduardo Salvagni Ballico:</t>
         </r>
@@ -110,7 +110,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Tempo de ciclo em seugndos</t>
@@ -125,7 +125,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Eduardo Salvagni Ballico:</t>
         </r>
@@ -134,7 +134,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Água utilizada na parte fixa do molde</t>
@@ -149,7 +149,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Eduardo Salvagni Ballico:</t>
         </r>
@@ -158,7 +158,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Água utilizada na parte movel do molde</t>
@@ -173,7 +173,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Eduardo Salvagni Ballico:</t>
         </r>
@@ -182,7 +182,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Água utilizada nas gavetas do molde (quando este possuí-las)</t>
@@ -197,7 +197,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Eduardo Salvagni Ballico:</t>
         </r>
@@ -206,7 +206,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Temperatura utilizada no controlador da água quente (quando utilizada)</t>
@@ -279,7 +279,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Eduardo Salvagni Ballico:</t>
         </r>
@@ -288,7 +288,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Tempo de ciclo em seugndos</t>
@@ -303,7 +303,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Eduardo Salvagni Ballico:</t>
         </r>
@@ -312,7 +312,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Água utilizada na parte fixa do molde</t>
@@ -327,7 +327,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Eduardo Salvagni Ballico:</t>
         </r>
@@ -336,7 +336,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Água utilizada na parte movel do molde</t>
@@ -351,7 +351,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Eduardo Salvagni Ballico:</t>
         </r>
@@ -360,7 +360,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Água utilizada nas gavetas do molde (quando este possuí-las)</t>
@@ -380,7 +380,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="68">
   <si>
     <t>Nome</t>
   </si>
@@ -397,9 +397,6 @@
     <t>Componentes</t>
   </si>
   <si>
-    <t>POM</t>
-  </si>
-  <si>
     <t>Supriauto</t>
   </si>
   <si>
@@ -493,9 +490,6 @@
     <t>Engrenagem sanefa</t>
   </si>
   <si>
-    <t>PA Natural +Cinza</t>
-  </si>
-  <si>
     <t>Esferas</t>
   </si>
   <si>
@@ -581,13 +575,22 @@
   </si>
   <si>
     <t>ID</t>
+  </si>
+  <si>
+    <t>PA Natural + Cinza</t>
+  </si>
+  <si>
+    <t>PP CP141</t>
+  </si>
+  <si>
+    <t>POM Natural</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -616,19 +619,6 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Segoe UI"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Segoe UI"/>
-      <charset val="1"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -639,7 +629,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="3"/>
         <bgColor theme="9"/>
       </patternFill>
     </fill>
@@ -680,11 +670,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -767,7 +756,7 @@
     <tableColumn id="10" xr3:uid="{BA22F920-DF65-4BF4-8D65-69D5D8E4E28E}" uniqueName="10" name="Cliente" queryTableFieldId="10" dataDxfId="1"/>
     <tableColumn id="9" xr3:uid="{1E170915-11E5-4F10-8AE7-B76E6952713E}" uniqueName="9" name="T. Ag. Que." queryTableFieldId="14" dataDxfId="0"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1070,8 +1059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F36ECC73-F55F-4422-BF92-BA31460C5BFE}">
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:J1"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1093,19 +1082,19 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" t="s">
         <v>63</v>
-      </c>
-      <c r="D1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E1" t="s">
-        <v>65</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
@@ -1114,22 +1103,22 @@
         <v>1</v>
       </c>
       <c r="H1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" t="s">
         <v>49</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>50</v>
-      </c>
-      <c r="J1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K1" t="s">
-        <v>52</v>
       </c>
       <c r="L1" t="s">
         <v>3</v>
       </c>
       <c r="M1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -1149,28 +1138,27 @@
         <v>4</v>
       </c>
       <c r="G2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I2" t="s">
-        <v>60</v>
-      </c>
-      <c r="K2" t="s">
-        <v>53</v>
-      </c>
-      <c r="L2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M2" s="3"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>4.5999999999999999E-2</v>
@@ -1182,31 +1170,30 @@
         <v>8</v>
       </c>
       <c r="G3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L3" t="s">
-        <v>6</v>
-      </c>
-      <c r="M3" s="3"/>
+        <v>5</v>
+      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>0.14799999999999999</v>
@@ -1221,28 +1208,27 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L4" t="s">
-        <v>6</v>
-      </c>
-      <c r="M4" s="3"/>
+        <v>5</v>
+      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>0.114</v>
@@ -1257,28 +1243,27 @@
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L5" t="s">
-        <v>6</v>
-      </c>
-      <c r="M5" s="3"/>
+        <v>5</v>
+      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6">
         <v>0.14799999999999999</v>
@@ -1293,21 +1278,21 @@
         <v>1</v>
       </c>
       <c r="G6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I6" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" t="s">
+        <v>51</v>
+      </c>
+      <c r="L6" t="s">
         <v>13</v>
       </c>
-      <c r="H6" t="s">
-        <v>58</v>
-      </c>
-      <c r="I6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K6" t="s">
-        <v>53</v>
-      </c>
-      <c r="L6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M6" s="3">
+      <c r="M6">
         <v>50</v>
       </c>
     </row>
@@ -1316,7 +1301,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7">
         <v>0.19600000000000001</v>
@@ -1331,21 +1316,21 @@
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L7" t="s">
-        <v>57</v>
-      </c>
-      <c r="M7" s="3">
+        <v>55</v>
+      </c>
+      <c r="M7">
         <v>50</v>
       </c>
     </row>
@@ -1354,7 +1339,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8">
         <v>6.2E-2</v>
@@ -1369,28 +1354,27 @@
         <v>1</v>
       </c>
       <c r="G8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" t="s">
+        <v>58</v>
+      </c>
+      <c r="K8" t="s">
+        <v>51</v>
+      </c>
+      <c r="L8" t="s">
         <v>17</v>
       </c>
-      <c r="H8" t="s">
-        <v>31</v>
-      </c>
-      <c r="I8" t="s">
-        <v>60</v>
-      </c>
-      <c r="K8" t="s">
-        <v>53</v>
-      </c>
-      <c r="L8" t="s">
-        <v>18</v>
-      </c>
-      <c r="M8" s="3"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9">
         <v>1.4E-2</v>
@@ -1405,28 +1389,27 @@
         <v>16</v>
       </c>
       <c r="G9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L9" t="s">
-        <v>57</v>
-      </c>
-      <c r="M9" s="3"/>
+        <v>55</v>
+      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10">
         <v>1.7000000000000001E-2</v>
@@ -1441,31 +1424,30 @@
         <v>4</v>
       </c>
       <c r="G10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10" t="s">
+        <v>58</v>
+      </c>
+      <c r="K10" t="s">
+        <v>51</v>
+      </c>
+      <c r="L10" t="s">
         <v>21</v>
       </c>
-      <c r="H10" t="s">
-        <v>31</v>
-      </c>
-      <c r="I10" t="s">
-        <v>60</v>
-      </c>
-      <c r="J10" t="s">
-        <v>60</v>
-      </c>
-      <c r="K10" t="s">
-        <v>53</v>
-      </c>
-      <c r="L10" t="s">
-        <v>22</v>
-      </c>
-      <c r="M10" s="3"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11">
         <v>3.2000000000000001E-2</v>
@@ -1477,28 +1459,27 @@
         <v>16</v>
       </c>
       <c r="G11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L11" t="s">
-        <v>57</v>
-      </c>
-      <c r="M11" s="3"/>
+        <v>55</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12">
         <v>5.3999999999999999E-2</v>
@@ -1513,25 +1494,24 @@
         <v>4</v>
       </c>
       <c r="H12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L12" t="s">
-        <v>57</v>
-      </c>
-      <c r="M12" s="3"/>
+        <v>55</v>
+      </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C13">
         <v>3.2000000000000001E-2</v>
@@ -1546,28 +1526,27 @@
         <v>4</v>
       </c>
       <c r="G13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L13" t="s">
-        <v>57</v>
-      </c>
-      <c r="M13" s="3"/>
+        <v>55</v>
+      </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C14">
         <v>0.88</v>
@@ -1582,28 +1561,27 @@
         <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L14" t="s">
-        <v>57</v>
-      </c>
-      <c r="M14" s="3"/>
+        <v>55</v>
+      </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C15">
         <v>0.16400000000000001</v>
@@ -1618,28 +1596,27 @@
         <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L15" t="s">
-        <v>57</v>
-      </c>
-      <c r="M15" s="3"/>
+        <v>55</v>
+      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C16">
         <v>3.3000000000000002E-2</v>
@@ -1654,28 +1631,27 @@
         <v>16</v>
       </c>
       <c r="G16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L16" t="s">
-        <v>57</v>
-      </c>
-      <c r="M16" s="3"/>
+        <v>55</v>
+      </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C17">
         <v>2.5000000000000001E-2</v>
@@ -1690,28 +1666,27 @@
         <v>15</v>
       </c>
       <c r="G17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L17" t="s">
-        <v>57</v>
-      </c>
-      <c r="M17" s="3"/>
+        <v>55</v>
+      </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C18">
         <v>3.2000000000000001E-2</v>
@@ -1726,28 +1701,27 @@
         <v>1</v>
       </c>
       <c r="G18" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="H18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K18" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L18" t="s">
-        <v>57</v>
-      </c>
-      <c r="M18" s="3"/>
+        <v>55</v>
+      </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C19">
         <v>5.2999999999999999E-2</v>
@@ -1762,28 +1736,27 @@
         <v>14</v>
       </c>
       <c r="G19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L19" t="s">
-        <v>57</v>
-      </c>
-      <c r="M19" s="3"/>
+        <v>55</v>
+      </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C20">
         <v>0.05</v>
@@ -1798,28 +1771,27 @@
         <v>2</v>
       </c>
       <c r="G20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K20" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L20" t="s">
-        <v>57</v>
-      </c>
-      <c r="M20" s="3"/>
+        <v>55</v>
+      </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C21">
         <v>0.02</v>
@@ -1834,21 +1806,21 @@
         <v>15</v>
       </c>
       <c r="G21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L21" t="s">
-        <v>57</v>
-      </c>
-      <c r="M21" s="3">
+        <v>55</v>
+      </c>
+      <c r="M21">
         <v>50</v>
       </c>
     </row>
@@ -1857,7 +1829,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C22">
         <v>3.4000000000000002E-2</v>
@@ -1872,28 +1844,27 @@
         <v>2</v>
       </c>
       <c r="G22" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I22" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K22" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L22" t="s">
-        <v>57</v>
-      </c>
-      <c r="M22" s="3"/>
+        <v>55</v>
+      </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C23">
         <v>2.4E-2</v>
@@ -1908,31 +1879,30 @@
         <v>4</v>
       </c>
       <c r="G23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I23" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J23" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K23" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L23" t="s">
-        <v>57</v>
-      </c>
-      <c r="M23" s="3"/>
+        <v>55</v>
+      </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C24">
         <v>7.5999999999999998E-2</v>
@@ -1947,28 +1917,27 @@
         <v>4</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I24" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L24" t="s">
-        <v>57</v>
-      </c>
-      <c r="M24" s="3"/>
+        <v>55</v>
+      </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C25">
         <v>5.6000000000000001E-2</v>
@@ -1983,25 +1952,24 @@
         <v>4</v>
       </c>
       <c r="H25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I25" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K25" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L25" t="s">
-        <v>57</v>
-      </c>
-      <c r="M25" s="3"/>
+        <v>55</v>
+      </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C26">
         <v>0.03</v>
@@ -2016,28 +1984,27 @@
         <v>1</v>
       </c>
       <c r="G26" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="H26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I26" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K26" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L26" t="s">
-        <v>6</v>
-      </c>
-      <c r="M26" s="3"/>
+        <v>5</v>
+      </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C27">
         <v>0.01</v>
@@ -2052,21 +2019,21 @@
         <v>2</v>
       </c>
       <c r="G27" t="s">
+        <v>54</v>
+      </c>
+      <c r="H27" t="s">
         <v>56</v>
       </c>
-      <c r="H27" t="s">
-        <v>58</v>
-      </c>
       <c r="I27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K27" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L27" t="s">
-        <v>57</v>
-      </c>
-      <c r="M27" s="3">
+        <v>55</v>
+      </c>
+      <c r="M27">
         <v>50</v>
       </c>
     </row>
@@ -2075,7 +2042,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C28">
         <v>1.4E-2</v>
@@ -2090,21 +2057,20 @@
         <v>2</v>
       </c>
       <c r="G28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L28" t="s">
-        <v>57</v>
-      </c>
-      <c r="M28" s="3"/>
+        <v>55</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -2119,30 +2085,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93B36A46-6DD5-47B1-9AE9-B6D6E5F3FBD6}">
   <dimension ref="B3:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="11" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="48.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>2</v>
@@ -2151,26 +2123,26 @@
         <v>1</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C4" t="str">
         <f>VLOOKUP(Consulta!$B$4,Peças[#All],2,0)</f>
-        <v>Componentes</v>
+        <v xml:space="preserve">Protetor pó </v>
       </c>
       <c r="D4">
         <f>VLOOKUP(Consulta!$B$4,Peças[#All],3,0)</f>
-        <v>5.8000000000000003E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="E4">
         <f>VLOOKUP(Consulta!$B$4,Peças[#All],4,0)</f>
@@ -2178,15 +2150,15 @@
       </c>
       <c r="F4">
         <f>VLOOKUP(Consulta!$B$4,Peças[#All],5,0)</f>
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="G4">
         <f>VLOOKUP(Consulta!$B$4,Peças[#All],6,0)</f>
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="H4" t="str">
         <f>VLOOKUP(Consulta!$B$4,Peças[#All],7,0)</f>
-        <v>POM</v>
+        <v>PEBD + 50% PP moído/reciclado + 3% pigmento preto</v>
       </c>
       <c r="I4" t="str">
         <f>VLOOKUP(Consulta!$B$4,Peças[#All],8,0)</f>
@@ -2194,7 +2166,7 @@
       </c>
       <c r="J4" t="str">
         <f>VLOOKUP(Consulta!$B$4,Peças[#All],9,0)</f>
-        <v>Gelada</v>
+        <v>Ventilador</v>
       </c>
       <c r="K4" t="str">
         <f>IF(ISBLANK(VLOOKUP(Consulta!$B$4,Peças[#All],10,0)),"-",VLOOKUP(Consulta!$B$4,Peças[#All],10,0))</f>
